--- a/data/interim/P4/P04_009.xlsx
+++ b/data/interim/P4/P04_009.xlsx
@@ -482,22 +482,22 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C2" t="n">
-        <v>3819.114662916667</v>
+        <v>3530.930337916667</v>
       </c>
       <c r="D2" t="n">
-        <v>7663.723249999999</v>
+        <v>7414.833666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>49.83367141965451</v>
+        <v>47.61981855088591</v>
       </c>
       <c r="F2" t="n">
-        <v>60.75</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>60.75</v>
+        <v>58.33333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C3" t="n">
-        <v>6538.002852105257</v>
+        <v>6142.75006052631</v>
       </c>
       <c r="D3" t="n">
-        <v>11270.53365263158</v>
+        <v>10516.84805263158</v>
       </c>
       <c r="E3" t="n">
-        <v>58.0097008146432</v>
+        <v>58.40866036843843</v>
       </c>
       <c r="F3" t="n">
         <v>48.49744811183528</v>
       </c>
       <c r="G3" t="n">
-        <v>65.4118437955254</v>
+        <v>61.92759809368535</v>
       </c>
     </row>
     <row r="4">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C4" t="n">
-        <v>3655.236040000001</v>
+        <v>3531.64144</v>
       </c>
       <c r="D4" t="n">
-        <v>4998.800520000001</v>
+        <v>4476.86888</v>
       </c>
       <c r="E4" t="n">
-        <v>73.1222625382939</v>
+        <v>78.88641670470368</v>
       </c>
       <c r="F4" t="n">
-        <v>42.68</v>
+        <v>41.8</v>
       </c>
       <c r="G4" t="n">
-        <v>54.32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -557,22 +557,22 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C5" t="n">
-        <v>11243.46475</v>
+        <v>10923.11439285714</v>
       </c>
       <c r="D5" t="n">
-        <v>13978.16796428572</v>
+        <v>13778.65771428572</v>
       </c>
       <c r="E5" t="n">
-        <v>80.43589674073955</v>
+        <v>79.27560593607058</v>
       </c>
       <c r="F5" t="n">
-        <v>44.82142857142857</v>
+        <v>44.64285714285715</v>
       </c>
       <c r="G5" t="n">
-        <v>56.85714285714285</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C6" t="n">
-        <v>9230.172000000002</v>
+        <v>8600.406625</v>
       </c>
       <c r="D6" t="n">
-        <v>15302.9425625</v>
+        <v>15142.20015625</v>
       </c>
       <c r="E6" t="n">
-        <v>60.31632127156136</v>
+        <v>56.79760230517196</v>
       </c>
       <c r="F6" t="n">
-        <v>63.10075843334198</v>
+        <v>60.21276926994324</v>
       </c>
       <c r="G6" t="n">
-        <v>80.15625</v>
+        <v>73.59375</v>
       </c>
     </row>
     <row r="7">
@@ -607,22 +607,22 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C7" t="n">
-        <v>6329.846656818182</v>
+        <v>6152.197858181819</v>
       </c>
       <c r="D7" t="n">
-        <v>9836.348593636365</v>
+        <v>9522.430502727273</v>
       </c>
       <c r="E7" t="n">
-        <v>64.35158937853507</v>
+        <v>64.60743248711344</v>
       </c>
       <c r="F7" t="n">
-        <v>64.91818167946555</v>
+        <v>63.54090881347656</v>
       </c>
       <c r="G7" t="n">
-        <v>74.71363622492009</v>
+        <v>67.31818181818181</v>
       </c>
     </row>
     <row r="8">
@@ -632,22 +632,22 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C8" t="n">
-        <v>2925.386769230769</v>
+        <v>2683.489730769232</v>
       </c>
       <c r="D8" t="n">
-        <v>5884.725846153846</v>
+        <v>5690.786576923077</v>
       </c>
       <c r="E8" t="n">
-        <v>49.71152175496417</v>
+        <v>47.15498805826162</v>
       </c>
       <c r="F8" t="n">
-        <v>59.63974063213055</v>
+        <v>55.8740950180934</v>
       </c>
       <c r="G8" t="n">
-        <v>69.11538461538461</v>
+        <v>55.88461538461539</v>
       </c>
     </row>
     <row r="9">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C9" t="n">
-        <v>5583.183093793102</v>
+        <v>4944.762617931034</v>
       </c>
       <c r="D9" t="n">
-        <v>6479.944137931035</v>
+        <v>6309.72624137931</v>
       </c>
       <c r="E9" t="n">
-        <v>86.16097569593775</v>
+        <v>78.36730832319131</v>
       </c>
       <c r="F9" t="n">
-        <v>40.97931046321474</v>
+        <v>40.40000012003142</v>
       </c>
       <c r="G9" t="n">
-        <v>60.70344829559326</v>
+        <v>56.68275862726672</v>
       </c>
     </row>
     <row r="10">
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C10" t="n">
-        <v>5725.321842424242</v>
+        <v>5605.071993939395</v>
       </c>
       <c r="D10" t="n">
-        <v>9551.672303030306</v>
+        <v>7371.497121212121</v>
       </c>
       <c r="E10" t="n">
-        <v>59.94051785683499</v>
+        <v>76.03709126888641</v>
       </c>
       <c r="F10" t="n">
-        <v>49.69937359202992</v>
+        <v>49.27494395862926</v>
       </c>
       <c r="G10" t="n">
-        <v>60.06060606060606</v>
+        <v>55.27272727272727</v>
       </c>
     </row>
     <row r="11">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C11" t="n">
-        <v>2317.807636363637</v>
+        <v>2304.36890909091</v>
       </c>
       <c r="D11" t="n">
         <v>4817.623545454546</v>
       </c>
       <c r="E11" t="n">
-        <v>48.11101603300866</v>
+        <v>47.83206673059987</v>
       </c>
       <c r="F11" t="n">
-        <v>28.36363636363636</v>
+        <v>27.22727272727273</v>
       </c>
       <c r="G11" t="n">
-        <v>29.72727272727273</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="12">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C12" t="n">
-        <v>4295.4228</v>
+        <v>3425.751700000001</v>
       </c>
       <c r="D12" t="n">
-        <v>6908.950899999999</v>
+        <v>6144.1552</v>
       </c>
       <c r="E12" t="n">
-        <v>62.17185303777454</v>
+        <v>55.75626898226791</v>
       </c>
       <c r="F12" t="n">
-        <v>67.6813084602356</v>
+        <v>60.00816087722778</v>
       </c>
       <c r="G12" t="n">
-        <v>80.46029615402222</v>
+        <v>76.58508768081666</v>
       </c>
     </row>
     <row r="13">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C13" t="n">
-        <v>6196.978247999999</v>
+        <v>5584.302780000001</v>
       </c>
       <c r="D13" t="n">
-        <v>9608.397493199998</v>
+        <v>6779.3838532</v>
       </c>
       <c r="E13" t="n">
-        <v>64.49544008130066</v>
+        <v>82.37183350171421</v>
       </c>
       <c r="F13" t="n">
-        <v>49.07199966430664</v>
+        <v>47.92400009155273</v>
       </c>
       <c r="G13" t="n">
-        <v>57.78399993896485</v>
+        <v>54.16400024414062</v>
       </c>
     </row>
     <row r="14">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C14" t="n">
-        <v>3908.319190500001</v>
+        <v>3509.172827</v>
       </c>
       <c r="D14" t="n">
-        <v>5930.0718255</v>
+        <v>5855.501984500001</v>
       </c>
       <c r="E14" t="n">
-        <v>65.906776604185</v>
+        <v>59.9294959900803</v>
       </c>
       <c r="F14" t="n">
-        <v>49.85</v>
+        <v>48.55</v>
       </c>
       <c r="G14" t="n">
-        <v>52.95</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="15">
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C15" t="n">
-        <v>12404.98197241379</v>
+        <v>11055.12328275862</v>
       </c>
       <c r="D15" t="n">
-        <v>13159.05148965517</v>
+        <v>11514.30452413793</v>
       </c>
       <c r="E15" t="n">
-        <v>94.26957544900422</v>
+        <v>96.01208010074157</v>
       </c>
       <c r="F15" t="n">
-        <v>40.73103457483752</v>
+        <v>40.33448245607573</v>
       </c>
       <c r="G15" t="n">
-        <v>55.48275862068966</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -832,22 +832,22 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C16" t="n">
-        <v>9179.637639999999</v>
+        <v>8625.728360000003</v>
       </c>
       <c r="D16" t="n">
-        <v>13136.050256</v>
+        <v>11537.864816</v>
       </c>
       <c r="E16" t="n">
-        <v>69.88126157485675</v>
+        <v>74.7601787467502</v>
       </c>
       <c r="F16" t="n">
-        <v>59.84400002002716</v>
+        <v>53.25599999904632</v>
       </c>
       <c r="G16" t="n">
-        <v>70.16</v>
+        <v>67.31999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -857,22 +857,22 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C17" t="n">
-        <v>5360.265161739129</v>
+        <v>4623.097906956521</v>
       </c>
       <c r="D17" t="n">
-        <v>10172.18258173913</v>
+        <v>9498.902842608697</v>
       </c>
       <c r="E17" t="n">
-        <v>52.69532982392347</v>
+        <v>48.66980938281576</v>
       </c>
       <c r="F17" t="n">
-        <v>51.30434782608695</v>
+        <v>47.1304347826087</v>
       </c>
       <c r="G17" t="n">
-        <v>56.43478260869565</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C18" t="n">
-        <v>3667.658375</v>
+        <v>2742.811916666667</v>
       </c>
       <c r="D18" t="n">
         <v>7941.374958333334</v>
       </c>
       <c r="E18" t="n">
-        <v>46.18417332317647</v>
+        <v>34.53824974966683</v>
       </c>
       <c r="F18" t="n">
-        <v>45.375</v>
+        <v>34.99166666716337</v>
       </c>
       <c r="G18" t="n">
-        <v>61.45833333333334</v>
+        <v>47.79166666666666</v>
       </c>
     </row>
     <row r="19">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C19" t="n">
-        <v>4311.572090909091</v>
+        <v>4189.021727272727</v>
       </c>
       <c r="D19" t="n">
-        <v>5729.662272727274</v>
+        <v>4737.016863636363</v>
       </c>
       <c r="E19" t="n">
-        <v>75.25002147913365</v>
+        <v>88.43164058438735</v>
       </c>
       <c r="F19" t="n">
-        <v>61.22727272727273</v>
+        <v>52.27272727272727</v>
       </c>
       <c r="G19" t="n">
-        <v>64.54545454545455</v>
+        <v>60.68181818181818</v>
       </c>
     </row>
     <row r="20">
@@ -932,22 +932,22 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C20" t="n">
-        <v>6111.890866666667</v>
+        <v>5679.803133333332</v>
       </c>
       <c r="D20" t="n">
-        <v>12364.82686666666</v>
+        <v>10856.63793333334</v>
       </c>
       <c r="E20" t="n">
-        <v>49.42965180647388</v>
+        <v>52.31640926234197</v>
       </c>
       <c r="F20" t="n">
-        <v>50.5</v>
+        <v>49.56666666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>50.53333333333333</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="21">
@@ -957,22 +957,22 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C21" t="n">
-        <v>5121.329307692308</v>
+        <v>4630.530365384614</v>
       </c>
       <c r="D21" t="n">
-        <v>8231.262076923078</v>
+        <v>6293.311218846153</v>
       </c>
       <c r="E21" t="n">
-        <v>62.21803242118015</v>
+        <v>73.5786012221655</v>
       </c>
       <c r="F21" t="n">
-        <v>72.92307692307692</v>
+        <v>67.92307692307692</v>
       </c>
       <c r="G21" t="n">
-        <v>80.73076923076923</v>
+        <v>75.38461538461539</v>
       </c>
     </row>
     <row r="22">
@@ -982,22 +982,22 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C22" t="n">
-        <v>5123.195519199999</v>
+        <v>4702.634044</v>
       </c>
       <c r="D22" t="n">
-        <v>8902.871600000002</v>
+        <v>8439.118799999998</v>
       </c>
       <c r="E22" t="n">
-        <v>57.54542746859336</v>
+        <v>55.72423087585876</v>
       </c>
       <c r="F22" t="n">
-        <v>58.33280006408691</v>
+        <v>55.32199996948242</v>
       </c>
       <c r="G22" t="n">
-        <v>66.23999999999999</v>
+        <v>64.94</v>
       </c>
     </row>
     <row r="23">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C23" t="n">
-        <v>3848.725459999999</v>
+        <v>3163.923303333333</v>
       </c>
       <c r="D23" t="n">
-        <v>8182.396130952383</v>
+        <v>5829.856416666667</v>
       </c>
       <c r="E23" t="n">
-        <v>47.03665525848881</v>
+        <v>54.27103306160613</v>
       </c>
       <c r="F23" t="n">
-        <v>49.55476189794994</v>
+        <v>45.0628571340016</v>
       </c>
       <c r="G23" t="n">
-        <v>49.55476189794994</v>
+        <v>45.0628571340016</v>
       </c>
     </row>
     <row r="24">
@@ -1032,22 +1032,22 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C24" t="n">
-        <v>6876.016200000001</v>
+        <v>6462.9169</v>
       </c>
       <c r="D24" t="n">
-        <v>10644.39455</v>
+        <v>9209.537550000001</v>
       </c>
       <c r="E24" t="n">
-        <v>64.59753222882931</v>
+        <v>70.17634560814619</v>
       </c>
       <c r="F24" t="n">
-        <v>79</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>79.25</v>
+        <v>74.84999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C25" t="n">
-        <v>3280.940320416667</v>
+        <v>3078.73426125</v>
       </c>
       <c r="D25" t="n">
-        <v>7200.282183749999</v>
+        <v>5246.611225416666</v>
       </c>
       <c r="E25" t="n">
-        <v>45.56682969760931</v>
+        <v>58.68043445520396</v>
       </c>
       <c r="F25" t="n">
-        <v>60.76249980926514</v>
+        <v>57.5083331267039</v>
       </c>
       <c r="G25" t="n">
-        <v>72.70833333333333</v>
+        <v>67.54166666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1082,22 +1082,22 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="C26" t="n">
-        <v>36963.75272727272</v>
+        <v>32067.48636363637</v>
       </c>
       <c r="D26" t="n">
-        <v>42997.69927272727</v>
+        <v>37999.35927272727</v>
       </c>
       <c r="E26" t="n">
-        <v>85.96681532381018</v>
+        <v>84.38954492227899</v>
       </c>
       <c r="F26" t="n">
-        <v>75.90000083229758</v>
+        <v>69.43636495416814</v>
       </c>
       <c r="G26" t="n">
-        <v>79.74545496160334</v>
+        <v>73.29090985384855</v>
       </c>
     </row>
   </sheetData>
